--- a/Laporan DPW 2.xlsx
+++ b/Laporan DPW 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\62896\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12449295-09F7-47B5-B0B8-BC05A3DFC4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3117D7A4-D6E5-42AE-BE74-D3CFAD447AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3FC01C9-8144-40A8-8587-6C5C4D522F48}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>https://youtu.be/Rq_DB1HwTo8</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CYzhd82hFQ0/?utm_source=ig_web_copy_link</t>
   </si>
 </sst>
 </file>
@@ -308,7 +311,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,6 +342,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,7 +660,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,321 +675,323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="H1" s="3" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="H2" s="10">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="H2" s="9">
         <v>1</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="H3" s="2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="H4" s="2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="H5" s="2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="H5" s="1">
         <v>4</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="H6" s="2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="H7" s="2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="H7" s="1">
         <v>6</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="H8" s="2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="H8" s="1">
         <v>7</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="H9" s="2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="H9" s="1">
         <v>8</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="H10" s="2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="H10" s="1">
         <v>9</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="H11" s="2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="H11" s="1">
         <v>10</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="H12" s="2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="H12" s="1">
         <v>11</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="H13" s="2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="H13" s="1">
         <v>12</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="H14" s="2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="H14" s="1">
         <v>13</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="H15" s="2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="H15" s="1">
         <v>14</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="H16" s="2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="H16" s="1">
         <v>15</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="H17" s="2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="H17" s="1">
         <v>16</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="14"/>
+      <c r="K18" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
